--- a/experiment/experiment result.xlsx
+++ b/experiment/experiment result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
   <si>
     <t>enwiki</t>
   </si>
@@ -62,9 +62,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>esais (sa + lcp construction)</t>
-  </si>
-  <si>
     <t>checking  LMS arrays</t>
   </si>
   <si>
@@ -84,6 +81,18 @@
   </si>
   <si>
     <t xml:space="preserve"> I/O ratio</t>
+  </si>
+  <si>
+    <t>esais</t>
+  </si>
+  <si>
+    <t>sparse-phi-seq</t>
+  </si>
+  <si>
+    <t>sparse-phi-pal</t>
+  </si>
+  <si>
+    <t>pSAscan</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,19 +478,18 @@
     <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -497,23 +505,8 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -529,14 +522,8 @@
       <c r="E3" s="1">
         <v>155</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -549,11 +536,8 @@
       <c r="E4" s="1">
         <v>155</v>
       </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,11 +553,8 @@
         <f>(E3+E4)/2</f>
         <v>155</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,14 +570,8 @@
       <c r="E6" s="1">
         <v>155</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -609,19 +584,25 @@
       <c r="E7" s="1">
         <v>155</v>
       </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f>(C6+C7)/2</f>
+        <v>1.8369290046393871</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(D6+D7)/2</f>
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(E6+E7)/2</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,14 +618,8 @@
       <c r="E9" s="1">
         <v>155</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -657,11 +632,8 @@
       <c r="E10" s="1">
         <v>155</v>
       </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -677,11 +649,8 @@
         <f>(E9+E10)/2</f>
         <v>155</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,14 +666,8 @@
       <c r="E12" s="1">
         <v>155</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -717,11 +680,8 @@
       <c r="E13" s="1">
         <v>155</v>
       </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -737,11 +697,8 @@
         <f>(E12+E13)/2</f>
         <v>155</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -757,23 +714,8 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2977733461</v>
       </c>
@@ -789,14 +731,8 @@
       <c r="E16" s="1">
         <v>155</v>
       </c>
-      <c r="G16" s="1">
-        <v>2977733461</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>2</v>
       </c>
@@ -810,11 +746,8 @@
         <v>155</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -831,11 +764,8 @@
         <v>155</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -852,23 +782,8 @@
         <v>13</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1184051855</v>
       </c>
@@ -885,14 +800,8 @@
         <v>155</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1">
-        <v>2977733461</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -906,11 +815,8 @@
         <v>155</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,11 +833,8 @@
         <v>155</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -940,7 +843,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -949,7 +852,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -958,12 +861,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -979,13 +882,8 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1001,13 +899,8 @@
       <c r="E28" s="1">
         <v>190</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>2</v>
       </c>
@@ -1020,13 +913,8 @@
       <c r="E29" s="1">
         <v>190</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,13 +930,8 @@
         <f>(E28+E29)/2</f>
         <v>190</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1064,13 +947,8 @@
       <c r="E31" s="1">
         <v>191</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -1083,11 +961,6 @@
       <c r="E32" s="1">
         <v>191</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -1105,11 +978,6 @@
         <f>(E31+E32)/2</f>
         <v>191</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1127,11 +995,6 @@
       <c r="E34" s="1">
         <v>192</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
@@ -1146,11 +1009,6 @@
       <c r="E35" s="1">
         <v>192</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -1168,11 +1026,6 @@
         <f>(E34+E35)/2</f>
         <v>192</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1190,11 +1043,6 @@
       <c r="E37" s="1">
         <v>221</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
@@ -1209,11 +1057,6 @@
       <c r="E38" s="1">
         <v>221</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -1231,11 +1074,6 @@
         <f>(E37+E38)/2</f>
         <v>221</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -1253,11 +1091,6 @@
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1275,11 +1108,6 @@
       <c r="E41" s="1">
         <v>182</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
@@ -1294,11 +1122,6 @@
       <c r="E42" s="1">
         <v>182</v>
       </c>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
@@ -1316,11 +1139,6 @@
         <f>(E41+E42)/2</f>
         <v>182</v>
       </c>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1338,11 +1156,6 @@
       <c r="E44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1360,11 +1173,6 @@
       <c r="E45" s="1">
         <v>194</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
@@ -1379,11 +1187,6 @@
       <c r="E46" s="1">
         <v>194</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -1401,11 +1204,6 @@
         <f>(E45+E46)/2</f>
         <v>194</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G48"/>
@@ -1425,10 +1223,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -1456,28 +1254,28 @@
         <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -1848,28 +1646,28 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -1958,28 +1756,28 @@
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2043,6 +1841,487 @@
         <v>10</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.2057909518480301</v>
+      </c>
+      <c r="D75" s="1">
+        <v>23.7685546875</v>
+      </c>
+      <c r="E75" s="1">
+        <v>169.6240234375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.6310887187719345</v>
+      </c>
+      <c r="D78" s="1">
+        <v>23.6201171875</v>
+      </c>
+      <c r="E78" s="1">
+        <v>170.4921875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2.9019545763731003</v>
+      </c>
+      <c r="D81" s="1">
+        <v>23.647705078125</v>
+      </c>
+      <c r="E81" s="1">
+        <v>181.692138671875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.0214665457606316</v>
+      </c>
+      <c r="D84" s="1">
+        <v>23.594970703125</v>
+      </c>
+      <c r="E84" s="1">
+        <v>196.986572265625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.60603022575378418</v>
+      </c>
+      <c r="E90" s="1">
+        <v>47.178673062473536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>2147483648</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.53071416914463043</v>
+      </c>
+      <c r="E93" s="1">
+        <v>41.357627735473216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>4294967296</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.63400249928236008</v>
+      </c>
+      <c r="E96" s="1">
+        <v>42.665149493142962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>8589934592</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.63411891460418701</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45.481891523580998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.58715231716632843</v>
+      </c>
+      <c r="E105" s="1">
+        <v>50693418898</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>2147483648</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.54161064326763153</v>
+      </c>
+      <c r="E108" s="1">
+        <v>88885060810</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>4294967296</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.3976793959736824</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>8589934592</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.45488588511943817</v>
+      </c>
+      <c r="E114" s="1">
+        <v>391016508820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.38870610296726227</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>2147483648</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.46710018068552017</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>4294967296</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.58759702369570732</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>8589934592</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.83047430962324142</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/experiment/experiment result.xlsx
+++ b/experiment/experiment result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="27">
   <si>
     <t>enwiki</t>
   </si>
@@ -93,25 +93,36 @@
   </si>
   <si>
     <t>pSAscan</t>
+  </si>
+  <si>
+    <t>Ref-SA-checker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,8 +165,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -171,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -213,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,39 +468,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" style="1" customWidth="1"/>
     <col min="9" max="10" width="32" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="19.25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -506,7 +517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -537,7 +548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -554,7 +565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,7 +582,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -585,7 +596,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -602,7 +613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -619,7 +630,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -633,7 +644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -650,7 +661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,7 +678,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -681,7 +692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -698,7 +709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -715,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2977733461</v>
       </c>
@@ -732,7 +743,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>2</v>
       </c>
@@ -747,7 +758,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -765,7 +776,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -783,7 +794,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1184051855</v>
       </c>
@@ -801,7 +812,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -816,7 +827,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -834,7 +845,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -843,7 +854,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -852,7 +863,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -861,12 +872,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -883,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -900,7 +911,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
         <v>2</v>
       </c>
@@ -914,7 +925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,7 +942,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -948,7 +959,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -962,7 +973,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,7 +990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1038,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
         <v>2</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>2977733461</v>
       </c>
@@ -1109,7 +1120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <v>2</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1184051855</v>
       </c>
@@ -1174,7 +1185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <v>2</v>
       </c>
@@ -1188,7 +1199,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,20 +1216,20 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1245,7 @@
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1337,7 @@
         <v>0.51100019975142041</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <v>2</v>
       </c>
@@ -1344,7 +1355,7 @@
       </c>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1376,7 @@
       </c>
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>0.52149294133771928</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <v>2</v>
       </c>
@@ -1431,7 +1442,7 @@
       </c>
       <c r="N56"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1463,7 @@
       </c>
       <c r="N57"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>0.53061639694940477</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <v>2</v>
       </c>
@@ -1518,7 +1529,7 @@
       </c>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1550,7 @@
       </c>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1598,7 @@
         <v>0.47484666140959225</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B62" s="1">
         <v>2</v>
       </c>
@@ -1605,7 +1616,7 @@
       </c>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1637,7 @@
       </c>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>3028811776</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>0.52101543011250273</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <v>2</v>
       </c>
@@ -1727,7 +1738,7 @@
       </c>
       <c r="N66"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1747,7 @@
       </c>
       <c r="N67"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>1184366592</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>0.53994152183090016</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B70" s="1">
         <v>2</v>
       </c>
@@ -1836,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
@@ -1844,12 +1855,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -1883,17 +1894,17 @@
         <v>169.6240234375</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B76" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -1910,17 +1921,17 @@
         <v>170.4921875</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -1937,17 +1948,17 @@
         <v>181.692138671875</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -1964,22 +1975,22 @@
         <v>196.986572265625</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>1073741824</v>
       </c>
@@ -2010,17 +2021,17 @@
         <v>47.178673062473536</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B91" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>2147483648</v>
       </c>
@@ -2034,17 +2045,17 @@
         <v>41.357627735473216</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B94" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>4294967296</v>
       </c>
@@ -2058,17 +2069,17 @@
         <v>42.665149493142962</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B97" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>8589934592</v>
       </c>
@@ -2082,22 +2093,22 @@
         <v>45.481891523580998</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B100" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>1073741824</v>
       </c>
@@ -2128,17 +2139,17 @@
         <v>50693418898</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>2147483648</v>
       </c>
@@ -2152,17 +2163,17 @@
         <v>88885060810</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B109" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>4294967296</v>
       </c>
@@ -2173,17 +2184,17 @@
         <v>0.3976793959736824</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B112" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>8589934592</v>
       </c>
@@ -2197,22 +2208,22 @@
         <v>391016508820</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B115" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>1073741824</v>
       </c>
@@ -2243,17 +2254,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B121" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>2147483648</v>
       </c>
@@ -2267,17 +2278,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B124" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>4294967296</v>
       </c>
@@ -2291,17 +2302,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B127" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>8589934592</v>
       </c>
@@ -2315,18 +2326,237 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B130" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.68619381636381105</v>
+      </c>
+      <c r="D135" s="1">
+        <v>21.001999999999999</v>
+      </c>
+      <c r="E135" s="1">
+        <v>53.007800000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.7853703573346138</v>
+      </c>
+      <c r="D138" s="1">
+        <v>21.001000000000001</v>
+      </c>
+      <c r="E138" s="1">
+        <v>53.003900000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.75741438195109401</v>
+      </c>
+      <c r="D141" s="1">
+        <v>21.000499999999999</v>
+      </c>
+      <c r="E141" s="1">
+        <v>53.002000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.74431867010891395</v>
+      </c>
+      <c r="D144" s="1">
+        <v>21.0002</v>
+      </c>
+      <c r="E144" s="1">
+        <v>53.000999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>2977733461</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.73758784282271261</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20.990100000000002</v>
+      </c>
+      <c r="E148" s="1">
+        <v>53.000999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>1184051855</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.70704726850835398</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20.88</v>
+      </c>
+      <c r="E152" s="1">
+        <v>53.004399999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>